--- a/data/trans_orig/P16A02-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>58581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45098</v>
+        <v>44881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72858</v>
+        <v>73532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1236466209055375</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09518768029960813</v>
+        <v>0.09472986261185526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1537815087877311</v>
+        <v>0.1552045633988225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -765,19 +765,19 @@
         <v>62467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49781</v>
+        <v>48976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79249</v>
+        <v>76515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2036887503763072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1623221087337267</v>
+        <v>0.1596964555662251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2584106934705075</v>
+        <v>0.2494946137816515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -786,19 +786,19 @@
         <v>121048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103280</v>
+        <v>102310</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140244</v>
+        <v>143037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1550991629798922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1323331684226904</v>
+        <v>0.131090048567339</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1796946525825185</v>
+        <v>0.1832736657325917</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>415195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400918</v>
+        <v>400244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428678</v>
+        <v>428895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8763533790944625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.846218491212269</v>
+        <v>0.8447954366011774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9048123197003919</v>
+        <v>0.9052701373881447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -836,19 +836,19 @@
         <v>244213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227431</v>
+        <v>230165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256899</v>
+        <v>257704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7963112496236928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7415893065294925</v>
+        <v>0.7505053862183485</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8376778912662733</v>
+        <v>0.840303544433775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>631</v>
@@ -857,19 +857,19 @@
         <v>659409</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>640213</v>
+        <v>637420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>677177</v>
+        <v>678147</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8449008370201078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8203053474174816</v>
+        <v>0.8167263342674084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8676668315773096</v>
+        <v>0.868909951432661</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>57544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45270</v>
+        <v>43890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73150</v>
+        <v>72838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1568245015248997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1233744777001303</v>
+        <v>0.1196136464472706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1993539700182093</v>
+        <v>0.198503269905544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -982,19 +982,19 @@
         <v>84134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67373</v>
+        <v>69435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101641</v>
+        <v>101803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2262481420911892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.181176194239445</v>
+        <v>0.1867216210706572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2733289563406517</v>
+        <v>0.2737638053377863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -1003,19 +1003,19 @@
         <v>141678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119208</v>
+        <v>120613</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164770</v>
+        <v>165134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1917679876087557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1613535281886361</v>
+        <v>0.1632551585668032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2230236462555537</v>
+        <v>0.2235174687765804</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>309390</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293784</v>
+        <v>294096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>321664</v>
+        <v>323044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8431754984751003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8006460299817907</v>
+        <v>0.8014967300944558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8766255222998697</v>
+        <v>0.8803863535527294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -1053,19 +1053,19 @@
         <v>287731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>270224</v>
+        <v>270062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>304492</v>
+        <v>302430</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7737518579088108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7266710436593483</v>
+        <v>0.7262361946622138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8188238057605546</v>
+        <v>0.8132783789293428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>576</v>
@@ -1074,19 +1074,19 @@
         <v>597121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>574029</v>
+        <v>573665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>619591</v>
+        <v>618186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8082320123912443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7769763537444463</v>
+        <v>0.7764825312234196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8386464718113639</v>
+        <v>0.8367448414331967</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>69886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54517</v>
+        <v>56379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86516</v>
+        <v>87298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1288489018235113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1005121119188676</v>
+        <v>0.1039463092383124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1595095155141351</v>
+        <v>0.1609507418867961</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>39461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29338</v>
+        <v>29217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51529</v>
+        <v>51611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2351891706950439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1748575194579652</v>
+        <v>0.174135890598859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3071164922906355</v>
+        <v>0.3076086484657369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1220,19 +1220,19 @@
         <v>109347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91728</v>
+        <v>91468</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129718</v>
+        <v>129959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.153972390558495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1291636692433843</v>
+        <v>0.1287972400833498</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1826580151555185</v>
+        <v>0.1829961374188436</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>472503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455873</v>
+        <v>455091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487872</v>
+        <v>486010</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8711510981764887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8404904844858651</v>
+        <v>0.8390492581132035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8994878880811328</v>
+        <v>0.8960536907616876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1270,19 +1270,19 @@
         <v>128321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116253</v>
+        <v>116171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138444</v>
+        <v>138565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7648108293049561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6928835077093642</v>
+        <v>0.692391351534263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8251424805420349</v>
+        <v>0.8258641094011409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>586</v>
@@ -1291,19 +1291,19 @@
         <v>600824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>580453</v>
+        <v>580212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618443</v>
+        <v>618703</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8460276094415049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8173419848444814</v>
+        <v>0.8170038625811562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8708363307566156</v>
+        <v>0.8712027599166501</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>201964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178869</v>
+        <v>177553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230465</v>
+        <v>227346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1630934472071588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1444434650821213</v>
+        <v>0.1433801551329122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1861085828122974</v>
+        <v>0.1835904527394651</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>152</v>
@@ -1416,19 +1416,19 @@
         <v>155541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134287</v>
+        <v>135038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178881</v>
+        <v>178118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2177579808297517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1880018957669751</v>
+        <v>0.1890536959815266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2504339986492383</v>
+        <v>0.2493658111576172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>359</v>
@@ -1437,19 +1437,19 @@
         <v>357506</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>325334</v>
+        <v>322911</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>396484</v>
+        <v>391152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1830902104456798</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.166614343228999</v>
+        <v>0.1653731820726946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2030522416107463</v>
+        <v>0.200321634787478</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1036370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1007869</v>
+        <v>1010988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1059465</v>
+        <v>1060781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8369065527928412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8138914171877026</v>
+        <v>0.8164095472605347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8555565349178784</v>
+        <v>0.8566198448670876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>542</v>
@@ -1487,19 +1487,19 @@
         <v>558744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>535404</v>
+        <v>536167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>579998</v>
+        <v>579247</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7822420191702483</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7495660013507617</v>
+        <v>0.7506341888423829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8119981042330251</v>
+        <v>0.8109463040184735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1559</v>
@@ -1508,19 +1508,19 @@
         <v>1595114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1556136</v>
+        <v>1561468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1627286</v>
+        <v>1629709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8169097895543201</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7969477583892538</v>
+        <v>0.7996783652125221</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8333856567710012</v>
+        <v>0.8346268179273054</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>48641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36905</v>
+        <v>35752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63421</v>
+        <v>62176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1391576659883331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1055822795320858</v>
+        <v>0.1022850023633834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1814420702518453</v>
+        <v>0.1778819591837046</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1633,19 +1633,19 @@
         <v>153665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133095</v>
+        <v>133853</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175002</v>
+        <v>174436</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2701793353660452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2340116430252738</v>
+        <v>0.2353454588911389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3076942225335756</v>
+        <v>0.3066990622510479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -1654,19 +1654,19 @@
         <v>202306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176777</v>
+        <v>178085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227540</v>
+        <v>229333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2203073045611467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1925063915259161</v>
+        <v>0.1939318505944291</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2477864236228165</v>
+        <v>0.2497399785256542</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>300896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>286116</v>
+        <v>287361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>312632</v>
+        <v>313785</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8608423340116669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8185579297481546</v>
+        <v>0.8221180408162955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.894417720467914</v>
+        <v>0.8977149976366167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>394</v>
@@ -1704,19 +1704,19 @@
         <v>415087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>393750</v>
+        <v>394316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>435657</v>
+        <v>434899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7298206646339548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6923057774664244</v>
+        <v>0.6933009377489521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7659883569747262</v>
+        <v>0.764654541108861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>684</v>
@@ -1725,19 +1725,19 @@
         <v>715983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>690749</v>
+        <v>688956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>741512</v>
+        <v>740204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7796926954388533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7522135763771837</v>
+        <v>0.750260021474346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8074936084740841</v>
+        <v>0.8060681494055715</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>18063</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10816</v>
+        <v>10771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27252</v>
+        <v>27877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06057378172206097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03627190149680859</v>
+        <v>0.03611966529363795</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09138906066463293</v>
+        <v>0.09348338106131542</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>305</v>
@@ -1850,19 +1850,19 @@
         <v>311349</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>281095</v>
+        <v>282865</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342319</v>
+        <v>341540</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2493265359607784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2250995280977962</v>
+        <v>0.2265166483286377</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2741274280246512</v>
+        <v>0.2735033641742629</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>324</v>
@@ -1871,19 +1871,19 @@
         <v>329412</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>295910</v>
+        <v>297658</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>361807</v>
+        <v>366090</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2129415219976021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1912849169578212</v>
+        <v>0.192414571175387</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2338827238944582</v>
+        <v>0.2366514653955678</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>280138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270949</v>
+        <v>270324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287385</v>
+        <v>287430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.939426218277939</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.908610939335367</v>
+        <v>0.9065166189386845</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9637280985031914</v>
+        <v>0.963880334706362</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>933</v>
@@ -1921,19 +1921,19 @@
         <v>937411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>906441</v>
+        <v>907220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>967665</v>
+        <v>965895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7506734640392215</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7258725719753487</v>
+        <v>0.726496635825737</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7749004719022035</v>
+        <v>0.7734833516713623</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1220</v>
@@ -1942,19 +1942,19 @@
         <v>1217548</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1185153</v>
+        <v>1180870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1251050</v>
+        <v>1249302</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7870584780023979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7661172761055418</v>
+        <v>0.7633485346044322</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8087150830421788</v>
+        <v>0.8075854288246129</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>454680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>417559</v>
+        <v>417851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>497360</v>
+        <v>492542</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1390809431116941</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1277263429000726</v>
+        <v>0.1278156691831661</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1521362495547287</v>
+        <v>0.1506624679035268</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>783</v>
@@ -2067,19 +2067,19 @@
         <v>806617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>759107</v>
+        <v>755495</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>857355</v>
+        <v>856125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2387765557977902</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2247124837854918</v>
+        <v>0.2236433174797817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2537960731468643</v>
+        <v>0.2534321872417319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1246</v>
@@ -2088,19 +2088,19 @@
         <v>1261296</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1197698</v>
+        <v>1200165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1323200</v>
+        <v>1328431</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1897457775906888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1801781655015074</v>
+        <v>0.180549403430906</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1990583672020029</v>
+        <v>0.1998453472621204</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2814492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2771812</v>
+        <v>2776630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2851613</v>
+        <v>2851321</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8609190568883059</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8478637504452713</v>
+        <v>0.8493375320964732</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8722736570999273</v>
+        <v>0.8721843308168339</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2513</v>
@@ -2138,19 +2138,19 @@
         <v>2571507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2520769</v>
+        <v>2521999</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2619017</v>
+        <v>2622629</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7612234442022098</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7462039268531357</v>
+        <v>0.7465678127582676</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7752875162145083</v>
+        <v>0.7763566825202181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5256</v>
@@ -2159,19 +2159,19 @@
         <v>5386000</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5324096</v>
+        <v>5318865</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5449598</v>
+        <v>5447131</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8102542224093112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8009416327979971</v>
+        <v>0.8001546527378796</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8198218344984926</v>
+        <v>0.819450596569094</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>56831</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42807</v>
+        <v>43380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72741</v>
+        <v>73423</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1299847057896477</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09790989315477469</v>
+        <v>0.09921923485251895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.166375501392275</v>
+        <v>0.1679347673977533</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -2526,19 +2526,19 @@
         <v>80803</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66516</v>
+        <v>65474</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97417</v>
+        <v>96906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2569640172192219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.211527802977224</v>
+        <v>0.2082155656571164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3097960982266408</v>
+        <v>0.308173445804114</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -2547,19 +2547,19 @@
         <v>137634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114701</v>
+        <v>116303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158657</v>
+        <v>161585</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1831056877300185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1525957002077294</v>
+        <v>0.1547270794522292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2110735964067616</v>
+        <v>0.2149691227391873</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>380380</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>364470</v>
+        <v>363788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>394404</v>
+        <v>393831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8700152942103523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8336244986077251</v>
+        <v>0.8320652326022466</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9020901068452253</v>
+        <v>0.9007807651474807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -2597,19 +2597,19 @@
         <v>233651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217037</v>
+        <v>217548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247938</v>
+        <v>248980</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7430359827807781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6902039017733592</v>
+        <v>0.691826554195886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7884721970227763</v>
+        <v>0.7917844343428836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>561</v>
@@ -2618,19 +2618,19 @@
         <v>614031</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>593008</v>
+        <v>590080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>636964</v>
+        <v>635362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8168943122699815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7889264035932386</v>
+        <v>0.7850308772608128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8474042997922706</v>
+        <v>0.8452729205477709</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>75727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60832</v>
+        <v>58740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93215</v>
+        <v>94362</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1815905923185149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1458728545831268</v>
+        <v>0.1408584138650474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2235276367037889</v>
+        <v>0.2262789095799341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -2743,19 +2743,19 @@
         <v>108578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91335</v>
+        <v>91745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127021</v>
+        <v>128602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3221588036782473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2709955593418453</v>
+        <v>0.2722118095432846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3768781001053042</v>
+        <v>0.3815709028991515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>169</v>
@@ -2764,19 +2764,19 @@
         <v>184305</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158035</v>
+        <v>161267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206955</v>
+        <v>211256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2444195757161651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.20958157993681</v>
+        <v>0.2138672613207497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2744568833087151</v>
+        <v>0.2801612413228518</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>341291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323803</v>
+        <v>322656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356186</v>
+        <v>358278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8184094076814851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7764723632962112</v>
+        <v>0.7737210904200651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8541271454168738</v>
+        <v>0.8591415861349525</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>206</v>
@@ -2814,19 +2814,19 @@
         <v>228456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210013</v>
+        <v>208432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245699</v>
+        <v>245289</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6778411963217527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6231218998946957</v>
+        <v>0.6184290971008485</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7290044406581546</v>
+        <v>0.7277881904567154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>508</v>
@@ -2835,19 +2835,19 @@
         <v>569747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>547097</v>
+        <v>542796</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>596017</v>
+        <v>592785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.755580424283835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7255431166912848</v>
+        <v>0.7198387586771482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.79041842006319</v>
+        <v>0.7861327386792503</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>132353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112429</v>
+        <v>109882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154385</v>
+        <v>153056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2106424311670402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1789333431181975</v>
+        <v>0.174879142007699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.245706686796749</v>
+        <v>0.243591759996424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -2960,19 +2960,19 @@
         <v>73237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59165</v>
+        <v>59948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88963</v>
+        <v>89594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2839330595147536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2293760842130914</v>
+        <v>0.2324137137182934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3449025917086488</v>
+        <v>0.3473475021048744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -2981,19 +2981,19 @@
         <v>205590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180834</v>
+        <v>181941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232782</v>
+        <v>232637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2319728226964115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2040403175952734</v>
+        <v>0.2052895258074636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2626545621784045</v>
+        <v>0.2624912870313218</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>495976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473944</v>
+        <v>475273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515900</v>
+        <v>518447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7893575688329598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7542933132032511</v>
+        <v>0.7564082400035759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8210666568818026</v>
+        <v>0.8251208579923008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -3031,19 +3031,19 @@
         <v>184701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168975</v>
+        <v>168344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198773</v>
+        <v>197990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7160669404852463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6550974082913511</v>
+        <v>0.6526524978951256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7706239157869086</v>
+        <v>0.7675862862817067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -3052,19 +3052,19 @@
         <v>680677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653485</v>
+        <v>653630</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>705433</v>
+        <v>704326</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7680271773035886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7373454378215956</v>
+        <v>0.7375087129686783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7959596824047268</v>
+        <v>0.7947104741925364</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>235614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207139</v>
+        <v>208455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262843</v>
+        <v>266997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2035868993354039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.178982515920302</v>
+        <v>0.1801193668211876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2271148678176929</v>
+        <v>0.2307036258039909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -3177,19 +3177,19 @@
         <v>230207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204827</v>
+        <v>202447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257753</v>
+        <v>258736</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.300273196009906</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.267169255545844</v>
+        <v>0.2640640359759001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3362038369261091</v>
+        <v>0.3374857869250035</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>427</v>
@@ -3198,19 +3198,19 @@
         <v>465821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>425053</v>
+        <v>428722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510583</v>
+        <v>507144</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2421140921990718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.220924413820916</v>
+        <v>0.2228317575479276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2653793189781893</v>
+        <v>0.2635920714605298</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>921701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894472</v>
+        <v>890318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>950176</v>
+        <v>948860</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.796413100664596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7728851321823071</v>
+        <v>0.7692963741960093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.821017484079698</v>
+        <v>0.8198806331788124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>500</v>
@@ -3248,19 +3248,19 @@
         <v>536450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>508904</v>
+        <v>507921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>561830</v>
+        <v>564210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.699726803990094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6637961630738909</v>
+        <v>0.6625142130749965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.732830744454156</v>
+        <v>0.7359359640241001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1365</v>
@@ -3269,19 +3269,19 @@
         <v>1458152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1413390</v>
+        <v>1416829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1498920</v>
+        <v>1495251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7578859078009281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7346206810218109</v>
+        <v>0.7364079285394703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7790755861790841</v>
+        <v>0.7771682424520725</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>90881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74529</v>
+        <v>72897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109544</v>
+        <v>107877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1779902232781255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.145965560929783</v>
+        <v>0.1427688992747932</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.214542255378796</v>
+        <v>0.2112771641346031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>268</v>
@@ -3394,19 +3394,19 @@
         <v>291701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260345</v>
+        <v>266273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>318926</v>
+        <v>321278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3835708251922892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3423392540500537</v>
+        <v>0.3501354697659338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4193702921882864</v>
+        <v>0.4224635148654504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -3415,19 +3415,19 @@
         <v>382582</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>346937</v>
+        <v>349386</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>416096</v>
+        <v>418158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3009887842691105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.272945597813528</v>
+        <v>0.2748725167105144</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3273555075365136</v>
+        <v>0.3289771529343522</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>419715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401052</v>
+        <v>402719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>436067</v>
+        <v>437699</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8220097767218746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.785457744621204</v>
+        <v>0.7887228358653969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8540344390702169</v>
+        <v>0.8572311007252068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -3465,19 +3465,19 @@
         <v>468786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>441561</v>
+        <v>439209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>500142</v>
+        <v>494214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6164291748077108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5806297078117136</v>
+        <v>0.5775364851345495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6576607459499462</v>
+        <v>0.6498645302340661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>833</v>
@@ -3486,19 +3486,19 @@
         <v>888502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854988</v>
+        <v>852926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>924147</v>
+        <v>921698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6990112157308895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6726444924634865</v>
+        <v>0.6710228470656479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.727054402186472</v>
+        <v>0.7251274832894856</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>19037</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12068</v>
+        <v>12237</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28187</v>
+        <v>27811</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07161199329914354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04539630434850848</v>
+        <v>0.04603197464890194</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1060280909042231</v>
+        <v>0.1046134751526623</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>376</v>
@@ -3611,19 +3611,19 @@
         <v>402343</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>368556</v>
+        <v>369251</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>434565</v>
+        <v>436003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3637027966317092</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3331608192243667</v>
+        <v>0.3337890398580985</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3928303150633418</v>
+        <v>0.3941309685880162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>396</v>
@@ -3632,19 +3632,19 @@
         <v>421380</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>387058</v>
+        <v>386628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>453912</v>
+        <v>458805</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3071101085350553</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2820954366367177</v>
+        <v>0.281782145662103</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3308204014381673</v>
+        <v>0.3343861531912543</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>246804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237654</v>
+        <v>238030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253773</v>
+        <v>253604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9283880067008564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8939719090957772</v>
+        <v>0.8953865248473378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9546036956514919</v>
+        <v>0.953968025351098</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>665</v>
@@ -3682,19 +3682,19 @@
         <v>703897</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>671675</v>
+        <v>670237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>737684</v>
+        <v>736989</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6362972033682909</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6071696849366583</v>
+        <v>0.605869031411984</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6668391807756333</v>
+        <v>0.6662109601419016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>909</v>
@@ -3703,19 +3703,19 @@
         <v>950701</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>918169</v>
+        <v>913276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>985023</v>
+        <v>985453</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6928898914649447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6691795985618328</v>
+        <v>0.6656138468087457</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7179045633632822</v>
+        <v>0.7182178543378971</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>610443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>566473</v>
+        <v>567485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>660602</v>
+        <v>657989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1786848204746115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1658142938795922</v>
+        <v>0.1661106033309114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1933671446144828</v>
+        <v>0.1926021116649405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1097</v>
@@ -3828,19 +3828,19 @@
         <v>1186869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1128325</v>
+        <v>1126939</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1243872</v>
+        <v>1239899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3350077196057508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3184830158947997</v>
+        <v>0.3180917564177181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3510975272296747</v>
+        <v>0.3499759223168657</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1664</v>
@@ -3849,19 +3849,19 @@
         <v>1797312</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1720445</v>
+        <v>1719551</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1875026</v>
+        <v>1874636</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2582670626974138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2472216580183612</v>
+        <v>0.2470931837811379</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2694342632337273</v>
+        <v>0.2693782204837078</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2805867</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2755708</v>
+        <v>2758321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2849837</v>
+        <v>2848825</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8213151795253885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.806632855385517</v>
+        <v>0.8073978883350595</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8341857061204075</v>
+        <v>0.8338893966690887</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2186</v>
@@ -3899,19 +3899,19 @@
         <v>2355942</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2298939</v>
+        <v>2302912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2414486</v>
+        <v>2415872</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6649922803942492</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6489024727703253</v>
+        <v>0.6500240776831344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6815169841052002</v>
+        <v>0.6819082435822819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4818</v>
@@ -3920,19 +3920,19 @@
         <v>5161809</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5084095</v>
+        <v>5084485</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5238676</v>
+        <v>5239570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7417329373025862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7305657367662729</v>
+        <v>0.7306217795162921</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7527783419816388</v>
+        <v>0.7529068162188618</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>84277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69572</v>
+        <v>68722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103280</v>
+        <v>104316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1964066207013184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1621387512385502</v>
+        <v>0.1601569792373874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2406935942266609</v>
+        <v>0.2431088078076308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -4287,19 +4287,19 @@
         <v>82489</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67271</v>
+        <v>66659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98451</v>
+        <v>99191</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2376822738680071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1938335924941746</v>
+        <v>0.1920706605385638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2836761431705562</v>
+        <v>0.2858079991428756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -4308,19 +4308,19 @@
         <v>166765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145101</v>
+        <v>142795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189977</v>
+        <v>189432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2148630722294359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.186949973180893</v>
+        <v>0.1839791620936845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2447690728476057</v>
+        <v>0.244067394691638</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>344815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325812</v>
+        <v>324776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>359520</v>
+        <v>360370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8035933792986817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7593064057733393</v>
+        <v>0.7568911921923692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8378612487614501</v>
+        <v>0.8398430207626131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -4358,19 +4358,19 @@
         <v>264566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248604</v>
+        <v>247864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279784</v>
+        <v>280396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.762317726131993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7163238568294436</v>
+        <v>0.7141920008571242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8061664075058254</v>
+        <v>0.8079293394614361</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>569</v>
@@ -4379,19 +4379,19 @@
         <v>609382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>586170</v>
+        <v>586715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>631046</v>
+        <v>633352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7851369277705641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7552309271523944</v>
+        <v>0.755932605308362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.813050026819107</v>
+        <v>0.8160208379063156</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>66079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50586</v>
+        <v>52390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82461</v>
+        <v>83590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1751699337440498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1340998554504637</v>
+        <v>0.1388828284553181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.218597880629738</v>
+        <v>0.2215916244024831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -4504,19 +4504,19 @@
         <v>95590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78094</v>
+        <v>79549</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114523</v>
+        <v>113195</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2567750234887081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2097754913814235</v>
+        <v>0.2136838631924487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.307632251630529</v>
+        <v>0.3040646174949736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>150</v>
@@ -4525,19 +4525,19 @@
         <v>161669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138832</v>
+        <v>138907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185161</v>
+        <v>186351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2157027993913038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1852331189607249</v>
+        <v>0.1853330065367057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2470455209949661</v>
+        <v>0.2486343476813692</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>311148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294766</v>
+        <v>293637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326641</v>
+        <v>324837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8248300662559502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7814021193702622</v>
+        <v>0.7784083755975169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8659001445495363</v>
+        <v>0.8611171715446819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>263</v>
@@ -4575,19 +4575,19 @@
         <v>276683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>257750</v>
+        <v>259078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>294179</v>
+        <v>292724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7432249765112919</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.692367748369471</v>
+        <v>0.6959353825050264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7902245086185766</v>
+        <v>0.7863161368075512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>556</v>
@@ -4596,19 +4596,19 @@
         <v>587831</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>564339</v>
+        <v>563149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>610668</v>
+        <v>610593</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7842972006086962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7529544790050339</v>
+        <v>0.7513656523186307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8147668810392751</v>
+        <v>0.8146669934632942</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>103909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85331</v>
+        <v>87005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124019</v>
+        <v>122175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1990929283642404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1634957213840425</v>
+        <v>0.1667045545750035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2376235307804796</v>
+        <v>0.234090582090533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -4721,19 +4721,19 @@
         <v>59896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47505</v>
+        <v>47845</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73472</v>
+        <v>73272</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3605515820519422</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.285960586006802</v>
+        <v>0.2880079379442444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4422740621500678</v>
+        <v>0.4410715492075458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -4742,19 +4742,19 @@
         <v>163805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140607</v>
+        <v>143584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185948</v>
+        <v>189944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2380762737275632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2043606118455651</v>
+        <v>0.2086865954051105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.270259835115187</v>
+        <v>0.2760674873047738</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>418005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397895</v>
+        <v>399739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>436583</v>
+        <v>434909</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8009070716357596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7623764692195202</v>
+        <v>0.765909417909467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8365042786159574</v>
+        <v>0.8332954454249966</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -4792,19 +4792,19 @@
         <v>106227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92651</v>
+        <v>92851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118618</v>
+        <v>118278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6394484179480578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5577259378499322</v>
+        <v>0.5589284507924542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.714039413993198</v>
+        <v>0.711992062055755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>500</v>
@@ -4813,19 +4813,19 @@
         <v>524231</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>502088</v>
+        <v>498092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547429</v>
+        <v>544452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7619237262724368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.729740164884813</v>
+        <v>0.7239325126952262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7956393881544349</v>
+        <v>0.7913134045948895</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>229579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203743</v>
+        <v>205162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257888</v>
+        <v>258808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1996967221967789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.177223830184202</v>
+        <v>0.1784575145295757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2243210224884875</v>
+        <v>0.225121368681753</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -4938,19 +4938,19 @@
         <v>237812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>211659</v>
+        <v>213015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>266665</v>
+        <v>264681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2879507952678518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2562845183395587</v>
+        <v>0.2579255846636073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3228872482472793</v>
+        <v>0.3204853763827344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>445</v>
@@ -4959,19 +4959,19 @@
         <v>467391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>432513</v>
+        <v>427227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>507027</v>
+        <v>505068</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2365918795555796</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2189371463181881</v>
+        <v>0.216261298907718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2566556114953474</v>
+        <v>0.255664121014159</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>920059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>891750</v>
+        <v>890830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945895</v>
+        <v>944476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8003032778032211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7756789775115125</v>
+        <v>0.774878631318247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.822776169815798</v>
+        <v>0.8215424854704243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>573</v>
@@ -5009,19 +5009,19 @@
         <v>588064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>559211</v>
+        <v>561195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>614217</v>
+        <v>612861</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7120492047321482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6771127517527205</v>
+        <v>0.6795146236172656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7437154816604411</v>
+        <v>0.7420744153363927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1456</v>
@@ -5030,19 +5030,19 @@
         <v>1508123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1468487</v>
+        <v>1470446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1543001</v>
+        <v>1548287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7634081204444203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7433443885046526</v>
+        <v>0.7443358789858407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7810628536818118</v>
+        <v>0.7837387010922819</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>116045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97111</v>
+        <v>97045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136174</v>
+        <v>138887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1869556801950706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1564524988349001</v>
+        <v>0.1563458017679339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2193861613795915</v>
+        <v>0.2237559310797988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>248</v>
@@ -5155,19 +5155,19 @@
         <v>266506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>240969</v>
+        <v>240901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>293244</v>
+        <v>292334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3610002680350578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3264085861732333</v>
+        <v>0.3263158061990492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.397218084825761</v>
+        <v>0.3959853274769974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -5176,19 +5176,19 @@
         <v>382551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350348</v>
+        <v>344606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414931</v>
+        <v>415385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2815047028087849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2578076317083234</v>
+        <v>0.2535822283010208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3053320978987967</v>
+        <v>0.3056658856224295</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>504661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484532</v>
+        <v>481819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>523595</v>
+        <v>523661</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8130443198049294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.780613838620408</v>
+        <v>0.7762440689202013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8435475011650998</v>
+        <v>0.8436541982320661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>451</v>
@@ -5226,19 +5226,19 @@
         <v>471738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>445000</v>
+        <v>445910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497275</v>
+        <v>497343</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6389997319649422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.602781915174239</v>
+        <v>0.6040146725230027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6735914138267667</v>
+        <v>0.6736841938009508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>933</v>
@@ -5247,19 +5247,19 @@
         <v>976399</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>944019</v>
+        <v>943565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1008602</v>
+        <v>1014344</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7184952971912152</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6946679021012033</v>
+        <v>0.6943341143775703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7421923682916766</v>
+        <v>0.7464177716989792</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>37790</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27047</v>
+        <v>26045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51274</v>
+        <v>50677</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1316054475496749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09419229577389374</v>
+        <v>0.09070270472046149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1785664011883446</v>
+        <v>0.1764869262323449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>312</v>
@@ -5372,19 +5372,19 @@
         <v>354567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>326331</v>
+        <v>323882</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>388838</v>
+        <v>387637</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3276880208634446</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3015930381811199</v>
+        <v>0.299329694421285</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3593610249979413</v>
+        <v>0.3582512414859274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>346</v>
@@ -5393,19 +5393,19 @@
         <v>392356</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356754</v>
+        <v>355442</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>427097</v>
+        <v>425080</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2865651804270738</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2605624705387588</v>
+        <v>0.2596041332371651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3119389653437587</v>
+        <v>0.3104655693551857</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>249355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235871</v>
+        <v>236468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260098</v>
+        <v>261100</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8683945524503252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8214335988116553</v>
+        <v>0.8235130737676551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9058077042261062</v>
+        <v>0.9092972952795387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>680</v>
@@ -5443,19 +5443,19 @@
         <v>727458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>693187</v>
+        <v>694388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>755694</v>
+        <v>758143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6723119791365554</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6406389750020584</v>
+        <v>0.6417487585140725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6984069618188801</v>
+        <v>0.700670305578715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>918</v>
@@ -5464,19 +5464,19 @@
         <v>976814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>942073</v>
+        <v>944090</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1012416</v>
+        <v>1013728</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7134348195729262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6880610346562412</v>
+        <v>0.6895344306448143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7394375294612412</v>
+        <v>0.7403958667628349</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>637678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>594814</v>
+        <v>588439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>687711</v>
+        <v>685620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1883432891787369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1756830068252151</v>
+        <v>0.1738001047401835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.203121048083337</v>
+        <v>0.2025033527975421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1008</v>
@@ -5589,19 +5589,19 @@
         <v>1096860</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1036674</v>
+        <v>1038750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1151468</v>
+        <v>1148524</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3105846994453805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2935426655793328</v>
+        <v>0.2941303695728277</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3260475852323657</v>
+        <v>0.3252139618872855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1618</v>
@@ -5610,19 +5610,19 @@
         <v>1734538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1662520</v>
+        <v>1660651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1813533</v>
+        <v>1813646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2507529191939603</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2403417489503453</v>
+        <v>0.2400714558982596</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2621729143290378</v>
+        <v>0.262189239627193</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2748044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2698011</v>
+        <v>2700102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2790908</v>
+        <v>2797283</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8116567108212631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7968789519166631</v>
+        <v>0.7974966472024576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.824316993174785</v>
+        <v>0.8261998952598163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2318</v>
@@ -5660,19 +5660,19 @@
         <v>2434736</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2380128</v>
+        <v>2383072</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2494922</v>
+        <v>2492846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6894153005546194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6739524147676343</v>
+        <v>0.6747860381127146</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7064573344206672</v>
+        <v>0.7058696304271727</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4932</v>
@@ -5681,19 +5681,19 @@
         <v>5182780</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5103785</v>
+        <v>5103672</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5254798</v>
+        <v>5256667</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7492470808060397</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7378270856709622</v>
+        <v>0.737810760372807</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7596582510496547</v>
+        <v>0.7599285441017404</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>107558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89056</v>
+        <v>90426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127663</v>
+        <v>128035</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1953403577620372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1617381004732014</v>
+        <v>0.1642256081760189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2318545368232633</v>
+        <v>0.2325299158694149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>224</v>
@@ -6048,19 +6048,19 @@
         <v>152673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135045</v>
+        <v>135270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170598</v>
+        <v>169396</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3125919919967464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2764990224559601</v>
+        <v>0.2769584625088788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3492917937144946</v>
+        <v>0.3468304422856742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>333</v>
@@ -6069,19 +6069,19 @@
         <v>260231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>234063</v>
+        <v>233334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285114</v>
+        <v>285873</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2504562074270529</v>
+        <v>0.2504562074270528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2252708810742161</v>
+        <v>0.2245689313420975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2744044570735971</v>
+        <v>0.2751350041557671</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>443060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422955</v>
+        <v>422583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461562</v>
+        <v>460192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8046596422379628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7681454631767365</v>
+        <v>0.7674700841305848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8382618995267986</v>
+        <v>0.8357743918239812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>462</v>
@@ -6119,19 +6119,19 @@
         <v>335738</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317813</v>
+        <v>319015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353366</v>
+        <v>353141</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6874080080032537</v>
+        <v>0.6874080080032536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6507082062855054</v>
+        <v>0.6531695577143257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7235009775440399</v>
+        <v>0.7230415374911213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>907</v>
@@ -6140,19 +6140,19 @@
         <v>778798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>753915</v>
+        <v>753156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804966</v>
+        <v>805695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7495437925729472</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.725595542926403</v>
+        <v>0.7248649958442328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7747291189257838</v>
+        <v>0.7754310686579025</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>95336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78013</v>
+        <v>76760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114646</v>
+        <v>112553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1972961986302266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.161446537227928</v>
+        <v>0.1588526453435881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2372589374557522</v>
+        <v>0.2329270514874479</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -6265,19 +6265,19 @@
         <v>133481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118127</v>
+        <v>118206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>148688</v>
+        <v>150897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3154513959329903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2791666084162195</v>
+        <v>0.2793520771821821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.351389237013447</v>
+        <v>0.3566097340545479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>306</v>
@@ -6286,19 +6286,19 @@
         <v>228817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>204779</v>
+        <v>205686</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252827</v>
+        <v>256212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2524583893375527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2259363189527257</v>
+        <v>0.2269374205987726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.27894881079054</v>
+        <v>0.2826840466678314</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>387876</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368566</v>
+        <v>370659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405199</v>
+        <v>406452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8027038013697734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7627410625442477</v>
+        <v>0.7670729485125518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8385534627720719</v>
+        <v>0.8411473546564119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>387</v>
@@ -6336,19 +6336,19 @@
         <v>289662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>274455</v>
+        <v>272246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305016</v>
+        <v>304937</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6845486040670096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6486107629865531</v>
+        <v>0.6433902659454523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7208333915837806</v>
+        <v>0.720647922817818</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>765</v>
@@ -6357,19 +6357,19 @@
         <v>677538</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653528</v>
+        <v>650143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>701576</v>
+        <v>700669</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7475416106624474</v>
+        <v>0.7475416106624473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7210511892094599</v>
+        <v>0.7173159533321686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7740636810472743</v>
+        <v>0.7730625794012274</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>130750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110337</v>
+        <v>112729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151047</v>
+        <v>153133</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2772401135074791</v>
+        <v>0.277240113507479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2339561494145515</v>
+        <v>0.2390291619317702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3202790257360045</v>
+        <v>0.3247001986697085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -6482,19 +6482,19 @@
         <v>87361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75931</v>
+        <v>76743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98667</v>
+        <v>100094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4659331374966993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4049702962315668</v>
+        <v>0.40930464605898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5262350635642159</v>
+        <v>0.5338455058336578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>275</v>
@@ -6503,19 +6503,19 @@
         <v>218111</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193336</v>
+        <v>195726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240651</v>
+        <v>243124</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3309177748467846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2933297713043379</v>
+        <v>0.2969555788871435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3651160967329433</v>
+        <v>0.3688683036705861</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>340862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320565</v>
+        <v>318479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>361275</v>
+        <v>358883</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.722759886492521</v>
+        <v>0.7227598864925209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6797209742639958</v>
+        <v>0.6752998013302918</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7660438505854487</v>
+        <v>0.7609708380682297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -6553,19 +6553,19 @@
         <v>100136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88830</v>
+        <v>87403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111566</v>
+        <v>110754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5340668625033006</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4737649364357842</v>
+        <v>0.4661544941663423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5950297037684333</v>
+        <v>0.5906953539410205</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>502</v>
@@ -6574,19 +6574,19 @@
         <v>440998</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>418458</v>
+        <v>415985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>465773</v>
+        <v>463383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6690822251532154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6348839032670567</v>
+        <v>0.631131696329414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7066702286956619</v>
+        <v>0.7030444211128568</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>320654</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>290344</v>
+        <v>290049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>354599</v>
+        <v>355177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2833021663521427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2565235091841749</v>
+        <v>0.256262512004256</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.313293250239537</v>
+        <v>0.3138039850362138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>518</v>
@@ -6699,19 +6699,19 @@
         <v>335075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>308824</v>
+        <v>310834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>358896</v>
+        <v>360685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3890740955205428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3585933006888709</v>
+        <v>0.3609268776344421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4167338736577543</v>
+        <v>0.4188113188121375</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>871</v>
@@ -6720,19 +6720,19 @@
         <v>655728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>615752</v>
+        <v>616976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>697676</v>
+        <v>697945</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3290068908337597</v>
+        <v>0.3290068908337598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.308949037101042</v>
+        <v>0.309562867232887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3500537111636342</v>
+        <v>0.3501884816524594</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>811189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>777244</v>
+        <v>776666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>841499</v>
+        <v>841794</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7166978336478572</v>
+        <v>0.7166978336478573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6867067497604631</v>
+        <v>0.6861960149637866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7434764908158252</v>
+        <v>0.7437374879957441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>712</v>
@@ -6770,19 +6770,19 @@
         <v>526136</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502315</v>
+        <v>500526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>552387</v>
+        <v>550377</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6109259044794573</v>
+        <v>0.6109259044794572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5832661263422457</v>
+        <v>0.5811886811878629</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6414066993111291</v>
+        <v>0.639073122365558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1477</v>
@@ -6791,19 +6791,19 @@
         <v>1337326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1295378</v>
+        <v>1295109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1377302</v>
+        <v>1376078</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6709931091662401</v>
+        <v>0.6709931091662403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.649946288836366</v>
+        <v>0.6498115183475406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6910509628989584</v>
+        <v>0.690437132767113</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>143733</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122250</v>
+        <v>123437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167456</v>
+        <v>168189</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2530673459906429</v>
+        <v>0.2530673459906428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2152428208109303</v>
+        <v>0.2173321972899141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.294835270174704</v>
+        <v>0.2961253502271851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>666</v>
@@ -6916,19 +6916,19 @@
         <v>398331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>373847</v>
+        <v>373946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424391</v>
+        <v>422665</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4798435265489765</v>
+        <v>0.4798435265489766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4503496849239715</v>
+        <v>0.4504686578495658</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5112359249681181</v>
+        <v>0.5091565235240432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>817</v>
@@ -6937,19 +6937,19 @@
         <v>542064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>509029</v>
+        <v>510698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576777</v>
+        <v>579858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3877174597401237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3640884706305696</v>
+        <v>0.3652821810995342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4125460549532593</v>
+        <v>0.4147497341285794</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>424231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>400508</v>
+        <v>399775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445714</v>
+        <v>444527</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7469326540093572</v>
+        <v>0.7469326540093569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7051647298252958</v>
+        <v>0.7038746497728147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7847571791890696</v>
+        <v>0.7826678027100857</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>623</v>
@@ -6987,19 +6987,19 @@
         <v>431796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>405736</v>
+        <v>407462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>456280</v>
+        <v>456181</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5201564734510234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.488764075031882</v>
+        <v>0.4908434764759569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5496503150760284</v>
+        <v>0.5495313421504341</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1019</v>
@@ -7008,19 +7008,19 @@
         <v>856027</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>821314</v>
+        <v>818233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>889062</v>
+        <v>887393</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6122825402598763</v>
+        <v>0.6122825402598764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5874539450467408</v>
+        <v>0.585250265871421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6359115293694305</v>
+        <v>0.6347178189004659</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>26333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13838</v>
+        <v>14541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43849</v>
+        <v>43039</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1110028362260767</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05833251019492934</v>
+        <v>0.06129506004335552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1848373198526357</v>
+        <v>0.1814246816081419</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>526</v>
@@ -7133,19 +7133,19 @@
         <v>317005</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>289792</v>
+        <v>290011</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342450</v>
+        <v>344020</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.376047292347884</v>
+        <v>0.3760472923478839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3437653050914606</v>
+        <v>0.3440253988824012</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4062316497022749</v>
+        <v>0.4080936283495654</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>542</v>
@@ -7154,19 +7154,19 @@
         <v>343338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>313801</v>
+        <v>315318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>374794</v>
+        <v>372861</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3178407647438722</v>
+        <v>0.3178407647438721</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2904974370505573</v>
+        <v>0.2919011471603589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3469606837582555</v>
+        <v>0.3451708557842026</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>210895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193379</v>
+        <v>194189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223390</v>
+        <v>222687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8889971637739233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8151626801473641</v>
+        <v>0.8185753183918582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9416674898050706</v>
+        <v>0.9387049399566446</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>631</v>
@@ -7204,19 +7204,19 @@
         <v>525988</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>500543</v>
+        <v>498973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>553201</v>
+        <v>552982</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.623952707652116</v>
+        <v>0.6239527076521159</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.593768350297725</v>
+        <v>0.5919063716504347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6562346949085396</v>
+        <v>0.6559746011175985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>727</v>
@@ -7225,19 +7225,19 @@
         <v>736883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>705427</v>
+        <v>707360</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>766420</v>
+        <v>764903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6821592352561278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6530393162417443</v>
+        <v>0.6548291442157975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7095025629494427</v>
+        <v>0.7080988528396417</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>824363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>772077</v>
+        <v>771739</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>877697</v>
+        <v>879328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2394680553311826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2242796462339072</v>
+        <v>0.2241813542701625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2549610723387234</v>
+        <v>0.255434618362948</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2273</v>
@@ -7350,19 +7350,19 @@
         <v>1423927</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1371463</v>
+        <v>1370871</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1474062</v>
+        <v>1479099</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3919011983984445</v>
+        <v>0.3919011983984444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.377461919517208</v>
+        <v>0.3772989560789999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.405699741110536</v>
+        <v>0.4070860093697538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3144</v>
@@ -7371,19 +7371,19 @@
         <v>2248290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2172743</v>
+        <v>2175531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2321949</v>
+        <v>2326875</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3177409480155243</v>
+        <v>0.3177409480155244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3070643102630192</v>
+        <v>0.3074581959813759</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.328150821510288</v>
+        <v>0.32884709375129</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2618113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2564779</v>
+        <v>2563148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2670399</v>
+        <v>2670737</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7605319446688175</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7450389276612767</v>
+        <v>0.7445653816370521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7757203537660929</v>
+        <v>0.7758186457298375</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2968</v>
@@ -7421,19 +7421,19 @@
         <v>2209455</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2159320</v>
+        <v>2154283</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2261919</v>
+        <v>2262511</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6080988016015555</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.594300258889464</v>
+        <v>0.5929139906302463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6225380804827921</v>
+        <v>0.6227010439210001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5397</v>
@@ -7442,19 +7442,19 @@
         <v>4827568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4753909</v>
+        <v>4748983</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4903115</v>
+        <v>4900327</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6822590519844757</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6718491784897118</v>
+        <v>0.6711529062487104</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6929356897369806</v>
+        <v>0.6925418040186242</v>
       </c>
     </row>
     <row r="24">
